--- a/data/trans_orig/P11_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>32277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22369</v>
+        <v>22790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45571</v>
+        <v>45561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06533026436601776</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04527623656370591</v>
+        <v>0.04612792744791607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09223758359805088</v>
+        <v>0.09221692494885154</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>33035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23523</v>
+        <v>23266</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45872</v>
+        <v>45948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07066446350932769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05031735757173417</v>
+        <v>0.04976908236047985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09812395249612019</v>
+        <v>0.09828641674606119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -786,19 +786,19 @@
         <v>65312</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51155</v>
+        <v>50829</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81848</v>
+        <v>84296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06792365237453914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05320080691489822</v>
+        <v>0.0528617175873948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08512092403848401</v>
+        <v>0.08766689344116338</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>461787</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448493</v>
+        <v>448503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>471695</v>
+        <v>471274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9346697356339823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.907762416401949</v>
+        <v>0.9077830750511484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9547237634362942</v>
+        <v>0.9538720725520839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>455</v>
@@ -836,19 +836,19 @@
         <v>434454</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>421617</v>
+        <v>421541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>443966</v>
+        <v>444223</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9293355364906724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.90187604750388</v>
+        <v>0.9017135832539387</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9496826424282658</v>
+        <v>0.9502309176395201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>923</v>
@@ -857,19 +857,19 @@
         <v>896241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>879705</v>
+        <v>877257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>910398</v>
+        <v>910724</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9320763476254609</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.914879075961516</v>
+        <v>0.9123331065588368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9467991930851019</v>
+        <v>0.9471382824126053</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>42769</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30815</v>
+        <v>31234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57318</v>
+        <v>57638</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05815005240128984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0418974726701035</v>
+        <v>0.04246753628170211</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07793182248219108</v>
+        <v>0.07836742004189236</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -982,19 +982,19 @@
         <v>88402</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72617</v>
+        <v>72118</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107930</v>
+        <v>107259</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1413313447147379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1160951905881651</v>
+        <v>0.1152984560592094</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1725519704931189</v>
+        <v>0.1714787336518822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -1003,19 +1003,19 @@
         <v>131171</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110348</v>
+        <v>111877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>154091</v>
+        <v>158170</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09637933669598309</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08107975450104811</v>
+        <v>0.08220350069237567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1132201002501072</v>
+        <v>0.1162174355590876</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>692720</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>678171</v>
+        <v>677851</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>704674</v>
+        <v>704255</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9418499475987102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9220681775178089</v>
+        <v>0.9216325799581075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9581025273298965</v>
+        <v>0.9575324637182978</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>508</v>
@@ -1053,19 +1053,19 @@
         <v>537092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>517564</v>
+        <v>518235</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>552877</v>
+        <v>553376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.858668655285262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8274480295068811</v>
+        <v>0.8285212663481177</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8839048094118349</v>
+        <v>0.8847015439407906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1171</v>
@@ -1074,19 +1074,19 @@
         <v>1229811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1206891</v>
+        <v>1202812</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1250634</v>
+        <v>1249105</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9036206633040169</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.886779899749893</v>
+        <v>0.8837825644409125</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.918920245498952</v>
+        <v>0.9177964993076243</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>67972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52110</v>
+        <v>54473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83434</v>
+        <v>85125</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1064284320018394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08159194792593749</v>
+        <v>0.08529129722663589</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1306367810631681</v>
+        <v>0.1332848392341451</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -1199,19 +1199,19 @@
         <v>141270</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121386</v>
+        <v>119591</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>163391</v>
+        <v>161994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2048151116653094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1759872520603921</v>
+        <v>0.173384170223771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2368859646954415</v>
+        <v>0.234861432477227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>202</v>
@@ -1220,19 +1220,19 @@
         <v>209242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184811</v>
+        <v>182958</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239298</v>
+        <v>236698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1575132274593637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1391216983777997</v>
+        <v>0.1377269651070274</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1801383854783118</v>
+        <v>0.1781812484643556</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>570696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>555234</v>
+        <v>553543</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>586558</v>
+        <v>584195</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8935715679981606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8693632189368321</v>
+        <v>0.866715160765855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9184080520740625</v>
+        <v>0.9147087027733644</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -1270,19 +1270,19 @@
         <v>548474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>526353</v>
+        <v>527750</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>568358</v>
+        <v>570153</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7951848883346906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7631140353045585</v>
+        <v>0.765138567522773</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8240127479396079</v>
+        <v>0.826615829776229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1069</v>
@@ -1291,19 +1291,19 @@
         <v>1119170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1089114</v>
+        <v>1091714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1143601</v>
+        <v>1145454</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8424867725406363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8198616145216883</v>
+        <v>0.8218187515356445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8608783016222004</v>
+        <v>0.8622730348929727</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>95196</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78251</v>
+        <v>78340</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115531</v>
+        <v>114590</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1833700046375876</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1507307123539581</v>
+        <v>0.1509005117155909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2225395758867178</v>
+        <v>0.2207280609265855</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>153</v>
@@ -1416,19 +1416,19 @@
         <v>154291</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134522</v>
+        <v>134148</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177318</v>
+        <v>175590</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2992209526926656</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2608825632440671</v>
+        <v>0.2601574014808288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3438779752237275</v>
+        <v>0.3405270095370042</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>241</v>
@@ -1437,19 +1437,19 @@
         <v>249487</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223249</v>
+        <v>222177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>280701</v>
+        <v>276431</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2410992726396671</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.215743804083013</v>
+        <v>0.2147079340559514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2712639063584476</v>
+        <v>0.2671375824005447</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>423951</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>403616</v>
+        <v>404557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>440896</v>
+        <v>440807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8166299953624124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7774604241132824</v>
+        <v>0.7792719390734145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8492692876460421</v>
+        <v>0.8490994882844091</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -1487,19 +1487,19 @@
         <v>361351</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338324</v>
+        <v>340052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>381120</v>
+        <v>381494</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7007790473073344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6561220247762726</v>
+        <v>0.6594729904629962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.739117436755933</v>
+        <v>0.7398425985191712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>745</v>
@@ -1508,19 +1508,19 @@
         <v>785302</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>754088</v>
+        <v>758358</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>811540</v>
+        <v>812612</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7589007273603329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7287360936415523</v>
+        <v>0.7328624175994549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.784256195916987</v>
+        <v>0.7852920659440485</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>119141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102329</v>
+        <v>101562</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139012</v>
+        <v>136733</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3080890422315925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2646141990053766</v>
+        <v>0.2626318602188249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3594747921176209</v>
+        <v>0.3535814189912421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>153</v>
@@ -1633,19 +1633,19 @@
         <v>155254</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135309</v>
+        <v>135065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>174409</v>
+        <v>174906</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3843053698417612</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3349342364003037</v>
+        <v>0.3343301269952192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.431719654218821</v>
+        <v>0.4329504592301487</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>276</v>
@@ -1654,19 +1654,19 @@
         <v>274395</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>248145</v>
+        <v>249515</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301848</v>
+        <v>300611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3470298325891972</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3138311353855275</v>
+        <v>0.3155637804485485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3817493305643023</v>
+        <v>0.3801857629979844</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>267569</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>247698</v>
+        <v>249977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>284381</v>
+        <v>285148</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6919109577684075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6405252078823791</v>
+        <v>0.646418581008758</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7353858009946235</v>
+        <v>0.7373681397811751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>243</v>
@@ -1704,19 +1704,19 @@
         <v>248732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>229577</v>
+        <v>229080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>268677</v>
+        <v>268921</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6156946301582388</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5682803457811788</v>
+        <v>0.5670495407698511</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6650657635996963</v>
+        <v>0.6656698730047806</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>512</v>
@@ -1725,19 +1725,19 @@
         <v>516301</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>488848</v>
+        <v>490085</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>542551</v>
+        <v>541181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6529701674108028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.618250669435698</v>
+        <v>0.6198142370020155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6861688646144725</v>
+        <v>0.6844362195514514</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>110481</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94999</v>
+        <v>94327</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126197</v>
+        <v>125808</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3776057617101116</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3246898646381856</v>
+        <v>0.3223941632764692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4313212489932401</v>
+        <v>0.4299908688984729</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>203</v>
@@ -1850,19 +1850,19 @@
         <v>187084</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>169324</v>
+        <v>169505</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>205188</v>
+        <v>204993</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5455385379200077</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4937519834448914</v>
+        <v>0.4942782168672233</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5983315516462796</v>
+        <v>0.597763224410194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>321</v>
@@ -1871,19 +1871,19 @@
         <v>297565</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>276311</v>
+        <v>275069</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>322658</v>
+        <v>321682</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4682246728971806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4347807546708471</v>
+        <v>0.4328266222890842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5077087165755106</v>
+        <v>0.5061736013382877</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>182102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166386</v>
+        <v>166775</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197584</v>
+        <v>198256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6223942382898884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5686787510067598</v>
+        <v>0.5700091311015271</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6753101353618144</v>
+        <v>0.6776058367235308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>168</v>
@@ -1921,19 +1921,19 @@
         <v>155850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>137746</v>
+        <v>137941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>173610</v>
+        <v>173429</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4544614620799923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.40166844835372</v>
+        <v>0.4022367755898059</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5062480165551086</v>
+        <v>0.5057217831327767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>353</v>
@@ -1942,19 +1942,19 @@
         <v>337952</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>312859</v>
+        <v>313835</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>359206</v>
+        <v>360448</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5317753271028194</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4922912834244894</v>
+        <v>0.4938263986617124</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5652192453291528</v>
+        <v>0.5671733777109158</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>127847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113348</v>
+        <v>113949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141241</v>
+        <v>140524</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6091346655343236</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5400553137217815</v>
+        <v>0.5429175119832459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6729520506577528</v>
+        <v>0.6695366912017817</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>198</v>
@@ -2067,19 +2067,19 @@
         <v>227370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>208869</v>
+        <v>209097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>243553</v>
+        <v>244498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6809375523607825</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6255299132679903</v>
+        <v>0.6262122937274879</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7294018369120917</v>
+        <v>0.7322316692100801</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>331</v>
@@ -2088,19 +2088,19 @@
         <v>355218</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>330094</v>
+        <v>331238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>377354</v>
+        <v>377332</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6532243209761334</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6070232205136405</v>
+        <v>0.6091274043127389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6939322426772558</v>
+        <v>0.6938922304089401</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>82036</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>68642</v>
+        <v>69359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96535</v>
+        <v>95934</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3908653344656764</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3270479493422474</v>
+        <v>0.3304633087982181</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.459944686278219</v>
+        <v>0.4570824880167538</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -2138,19 +2138,19 @@
         <v>106538</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>90355</v>
+        <v>89410</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>125039</v>
+        <v>124811</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3190624476392175</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2705981630879081</v>
+        <v>0.26776833078992</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3744700867320095</v>
+        <v>0.3737877062725115</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>179</v>
@@ -2159,19 +2159,19 @@
         <v>188573</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>166437</v>
+        <v>166459</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>213697</v>
+        <v>212553</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3467756790238667</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3060677573227439</v>
+        <v>0.3061077695910596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3929767794863592</v>
+        <v>0.3908725956872606</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>595684</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1818024517021065</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>959</v>
@@ -2284,19 +2284,19 @@
         <v>986706</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2919941708547434</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1559</v>
@@ -2305,19 +2305,19 @@
         <v>1582390</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2377480754111515</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2680859</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2635840</v>
+        <v>2638072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2724096</v>
+        <v>2727036</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8181975482978935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8044574898142877</v>
+        <v>0.8051387052662196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8313933312004204</v>
+        <v>0.8322905565146602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2338</v>
@@ -2355,19 +2355,19 @@
         <v>2392491</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2341706</v>
+        <v>2339443</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2445216</v>
+        <v>2441492</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7080058291452566</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6929770552501739</v>
+        <v>0.6923073352115495</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7236084851240593</v>
+        <v>0.7225065461662019</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4952</v>
@@ -2376,19 +2376,19 @@
         <v>5073351</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5005676</v>
+        <v>5002710</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5145609</v>
+        <v>5144330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7622519245888485</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7520839791909122</v>
+        <v>0.7516383379683245</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7731083478880776</v>
+        <v>0.7729162280179847</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>25948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17208</v>
+        <v>17290</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37173</v>
+        <v>36631</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05749044910946344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03812762498565515</v>
+        <v>0.03830817851938411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08236206582487075</v>
+        <v>0.08116126076917307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2744,19 +2744,19 @@
         <v>38542</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27672</v>
+        <v>27560</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51599</v>
+        <v>51553</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08958568634500079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06431916525127923</v>
+        <v>0.06405976839061178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1199337878769616</v>
+        <v>0.1198270078772958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -2765,19 +2765,19 @@
         <v>64490</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50245</v>
+        <v>50275</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81716</v>
+        <v>80143</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07315380244154146</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05699542092186728</v>
+        <v>0.05702863494674136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09269433933459414</v>
+        <v>0.09090955321356552</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>425391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414166</v>
+        <v>414708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>434131</v>
+        <v>434049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9425095508905366</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9176379341751292</v>
+        <v>0.9188387392308269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9618723750143449</v>
+        <v>0.9616918214806159</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>383</v>
@@ -2815,19 +2815,19 @@
         <v>391688</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>378631</v>
+        <v>378677</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>402558</v>
+        <v>402670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9104143136549993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8800662121230385</v>
+        <v>0.8801729921227042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9356808347487208</v>
+        <v>0.9359402316093882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>800</v>
@@ -2836,19 +2836,19 @@
         <v>817079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>799853</v>
+        <v>801426</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>831324</v>
+        <v>831294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9268461975584585</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9073056606654059</v>
+        <v>0.9090904467864344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9430045790781326</v>
+        <v>0.9429713650532584</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>57557</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43920</v>
+        <v>45378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74499</v>
+        <v>75697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0844239037643929</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06442083116060636</v>
+        <v>0.06655945991995896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1092748669047462</v>
+        <v>0.1110320255745813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -2961,19 +2961,19 @@
         <v>54561</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41462</v>
+        <v>40884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69640</v>
+        <v>69400</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08954984967637471</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0680507877539939</v>
+        <v>0.06710140298964684</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1142988177736502</v>
+        <v>0.1139042927383176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -2982,19 +2982,19 @@
         <v>112118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92668</v>
+        <v>92371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134246</v>
+        <v>132848</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08684299330397013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07177788593442032</v>
+        <v>0.07154720062001207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1039821813781297</v>
+        <v>0.1028993415493503</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>624205</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>607263</v>
+        <v>606065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>637842</v>
+        <v>636384</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9155760962356071</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8907251330952537</v>
+        <v>0.8889679744254191</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9355791688393935</v>
+        <v>0.9334405400800411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>519</v>
@@ -3032,19 +3032,19 @@
         <v>554722</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>539643</v>
+        <v>539883</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>567821</v>
+        <v>568399</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9104501503236253</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8857011822263499</v>
+        <v>0.8860957072616822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9319492122460061</v>
+        <v>0.9328985970103532</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1129</v>
@@ -3053,19 +3053,19 @@
         <v>1178927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1156799</v>
+        <v>1158197</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1198377</v>
+        <v>1198674</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9131570066960298</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.89601781862187</v>
+        <v>0.8971006584506497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9282221140655792</v>
+        <v>0.9284527993799873</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>84133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68426</v>
+        <v>65952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103478</v>
+        <v>101775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1239214600696007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1007863266278522</v>
+        <v>0.09714269749935404</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1524147893017788</v>
+        <v>0.1499076437241132</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -3178,19 +3178,19 @@
         <v>134069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115037</v>
+        <v>113466</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155727</v>
+        <v>155445</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1893751199668113</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1624920407454907</v>
+        <v>0.1602726196749143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2199671996512226</v>
+        <v>0.2195690290106718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>208</v>
@@ -3199,19 +3199,19 @@
         <v>218202</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192299</v>
+        <v>191595</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>247333</v>
+        <v>250093</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1573334456251743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1386564166457457</v>
+        <v>0.1381486382523504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1783378173126927</v>
+        <v>0.1803282591241158</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>594788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>575443</v>
+        <v>577146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610495</v>
+        <v>612969</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8760785399303993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8475852106982211</v>
+        <v>0.8500923562758868</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8992136733721476</v>
+        <v>0.9028573025006453</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>536</v>
@@ -3249,19 +3249,19 @@
         <v>573887</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>552229</v>
+        <v>552511</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>592919</v>
+        <v>594490</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8106248800331887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7800328003487771</v>
+        <v>0.7804309709893281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8375079592545093</v>
+        <v>0.8397273803250854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1104</v>
@@ -3270,19 +3270,19 @@
         <v>1168675</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1139544</v>
+        <v>1136784</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1194578</v>
+        <v>1195282</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8426665543748257</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8216621826873075</v>
+        <v>0.8196717408758842</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.861343583354255</v>
+        <v>0.8618513617476498</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>86319</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68262</v>
+        <v>67820</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106580</v>
+        <v>106915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1406578477492029</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1112332587427747</v>
+        <v>0.110512367380476</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.173673278193468</v>
+        <v>0.1742178643099461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -3395,19 +3395,19 @@
         <v>166553</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146627</v>
+        <v>144154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191843</v>
+        <v>190226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.270290767990065</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.237953375400337</v>
+        <v>0.2339404148054675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3113326151105602</v>
+        <v>0.3087080616999556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>224</v>
@@ -3416,19 +3416,19 @@
         <v>252872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223624</v>
+        <v>223969</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>281312</v>
+        <v>285790</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2056069071062976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1818256191563073</v>
+        <v>0.182106277002906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.228731132887132</v>
+        <v>0.232371729894385</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>527364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>507103</v>
+        <v>506768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>545421</v>
+        <v>545863</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.859342152250797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8263267218065319</v>
+        <v>0.825782135690054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8887667412572252</v>
+        <v>0.8894876326195245</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>392</v>
@@ -3466,19 +3466,19 @@
         <v>449646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424356</v>
+        <v>425973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>469572</v>
+        <v>472045</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.729709232009935</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.68866738488944</v>
+        <v>0.6912919383000445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.762046624599663</v>
+        <v>0.7660595851945328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>862</v>
@@ -3487,19 +3487,19 @@
         <v>977010</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>948570</v>
+        <v>944092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1006258</v>
+        <v>1005913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7943930928937024</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.771268867112868</v>
+        <v>0.767628270105615</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8181743808436927</v>
+        <v>0.8178937229970941</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>114030</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96029</v>
+        <v>95499</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>133473</v>
+        <v>132632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2667582073938341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2246469136767984</v>
+        <v>0.2234071348749179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3122440254789622</v>
+        <v>0.3102746281166073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>185</v>
@@ -3612,19 +3612,19 @@
         <v>207162</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184559</v>
+        <v>184874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>228626</v>
+        <v>228093</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4626212319073574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4121457620390108</v>
+        <v>0.4128494660698804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.510554251174827</v>
+        <v>0.5093625533288494</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>291</v>
@@ -3633,19 +3633,19 @@
         <v>321192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>290938</v>
+        <v>292732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>348915</v>
+        <v>350418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3669650007234364</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3323994752420802</v>
+        <v>0.3344493490880269</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3986392970193558</v>
+        <v>0.4003566294395122</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>313435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>293992</v>
+        <v>294833</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>331436</v>
+        <v>331966</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.733241792606166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6877559745210381</v>
+        <v>0.6897253718833928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7753530863232021</v>
+        <v>0.776592865125082</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>221</v>
@@ -3683,19 +3683,19 @@
         <v>240638</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>219174</v>
+        <v>219707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>263241</v>
+        <v>262926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5373787680926426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4894457488251729</v>
+        <v>0.4906374466711506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5878542379609893</v>
+        <v>0.5871505339301194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>506</v>
@@ -3704,19 +3704,19 @@
         <v>554073</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>526350</v>
+        <v>524847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>584327</v>
+        <v>582533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6330349992765637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6013607029806443</v>
+        <v>0.5996433705604878</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6676005247579198</v>
+        <v>0.6655506509119731</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>124563</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>105194</v>
+        <v>105111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143076</v>
+        <v>142823</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4033965528295728</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3406685357173847</v>
+        <v>0.3404006649903507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4633487671691207</v>
+        <v>0.4625298986497847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -3829,19 +3829,19 @@
         <v>210449</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>192416</v>
+        <v>191747</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>230078</v>
+        <v>229882</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5944965852545723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.543555209585569</v>
+        <v>0.5416633282397789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6499441070446764</v>
+        <v>0.6493914769281461</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>320</v>
@@ -3850,19 +3850,19 @@
         <v>335013</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>309532</v>
+        <v>308804</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>359816</v>
+        <v>362075</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.505464200525887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4670188542790285</v>
+        <v>0.4659209465024625</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5428875678480282</v>
+        <v>0.5462953069678534</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>184223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165710</v>
+        <v>165963</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203592</v>
+        <v>203675</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5966034471704272</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5366512328308795</v>
+        <v>0.5374701013502154</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6593314642826155</v>
+        <v>0.6595993350096493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -3900,19 +3900,19 @@
         <v>143547</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123918</v>
+        <v>124114</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>161580</v>
+        <v>162249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4055034147454277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3500558929553235</v>
+        <v>0.3506085230718539</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.456444790414431</v>
+        <v>0.4583366717602211</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>305</v>
@@ -3921,19 +3921,19 @@
         <v>327769</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>302966</v>
+        <v>300707</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353250</v>
+        <v>353978</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.494535799474113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4571124321519718</v>
+        <v>0.4537046930321466</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5329811457209718</v>
+        <v>0.5340790534975371</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>150877</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134278</v>
+        <v>133462</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>166935</v>
+        <v>167675</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6090340215956338</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5420323364035319</v>
+        <v>0.5387360834355555</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.673854973662119</v>
+        <v>0.6768416060566845</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>274</v>
@@ -4046,19 +4046,19 @@
         <v>302329</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>282348</v>
+        <v>285242</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>317104</v>
+        <v>320206</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7772385348314284</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7258696857506501</v>
+        <v>0.7333093392598465</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8152213970962134</v>
+        <v>0.8231972924828628</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>408</v>
@@ -4067,19 +4067,19 @@
         <v>453206</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>427618</v>
+        <v>430674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>476135</v>
+        <v>476676</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7117935375929222</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6716063575794996</v>
+        <v>0.676405827099167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7478054447968451</v>
+        <v>0.7486553061704688</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>96854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80796</v>
+        <v>80056</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>113453</v>
+        <v>114269</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3909659784043662</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3261450263378811</v>
+        <v>0.3231583939433155</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4579676635964683</v>
+        <v>0.4612639165644447</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -4117,19 +4117,19 @@
         <v>86650</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>71875</v>
+        <v>68773</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106631</v>
+        <v>103737</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2227614651685717</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1847786029037866</v>
+        <v>0.1768027075171379</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2741303142493499</v>
+        <v>0.266690660740154</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>162</v>
@@ -4138,19 +4138,19 @@
         <v>183504</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>160575</v>
+        <v>160034</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>209092</v>
+        <v>206036</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2882064624070778</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.252194555203155</v>
+        <v>0.2513446938295312</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3283936424205006</v>
+        <v>0.3235941729008331</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>643427</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>594849</v>
+        <v>594927</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>686622</v>
+        <v>694674</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1887054780622702</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1744584313400576</v>
+        <v>0.174481370876464</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2013739416689959</v>
+        <v>0.203735477094097</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1032</v>
@@ -4263,19 +4263,19 @@
         <v>1113667</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1057388</v>
+        <v>1057823</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1173466</v>
+        <v>1166055</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.313316710540547</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2974834022449004</v>
+        <v>0.2976058103708598</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3301404297280862</v>
+        <v>0.3280554706314672</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1619</v>
@@ -4284,19 +4284,19 @@
         <v>1757093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1689360</v>
+        <v>1685715</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1840497</v>
+        <v>1834409</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2523061766253672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2425802104768902</v>
+        <v>0.2420568086695676</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2642823074072024</v>
+        <v>0.2634081510032076</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2766260</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2723065</v>
+        <v>2715013</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2814838</v>
+        <v>2814760</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8112945219377298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7986260583310041</v>
+        <v>0.7962645229059032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8255415686599425</v>
+        <v>0.825518629123536</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2262</v>
@@ -4334,19 +4334,19 @@
         <v>2440777</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2380978</v>
+        <v>2388389</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2497056</v>
+        <v>2496621</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.686683289459453</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6698595702719138</v>
+        <v>0.6719445293685328</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7025165977550997</v>
+        <v>0.7023941896291402</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4868</v>
@@ -4355,19 +4355,19 @@
         <v>5207038</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5123634</v>
+        <v>5129722</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5274771</v>
+        <v>5278416</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7476938233746327</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7357176925927976</v>
+        <v>0.7365918489967924</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7574197895231098</v>
+        <v>0.7579431913304323</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>17745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10654</v>
+        <v>10494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28979</v>
+        <v>27213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04278827812797773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02569091359774551</v>
+        <v>0.0253042255162361</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06987890639759417</v>
+        <v>0.06561987634202282</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -4723,19 +4723,19 @@
         <v>24457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16124</v>
+        <v>16343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34132</v>
+        <v>35200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06179866689472043</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04074266282884323</v>
+        <v>0.04129545796289596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08624579467981169</v>
+        <v>0.08894273190485229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -4744,19 +4744,19 @@
         <v>42202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30072</v>
+        <v>30928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56412</v>
+        <v>55477</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05207122020689711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03710506237613291</v>
+        <v>0.03816064232763766</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06960434114366264</v>
+        <v>0.06845180921497805</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>396960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385726</v>
+        <v>387492</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404051</v>
+        <v>404211</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9572117218720223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9301210936024059</v>
+        <v>0.9343801236579762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9743090864022547</v>
+        <v>0.9746957744837638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>379</v>
@@ -4794,19 +4794,19 @@
         <v>371298</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>361623</v>
+        <v>360555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>379631</v>
+        <v>379412</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9382013331052795</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9137542053201883</v>
+        <v>0.9110572680951476</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9592573371711568</v>
+        <v>0.958704542037104</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>752</v>
@@ -4815,19 +4815,19 @@
         <v>768258</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>754048</v>
+        <v>754983</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>780388</v>
+        <v>779532</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9479287797931029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9303956588563373</v>
+        <v>0.9315481907850219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9628949376238671</v>
+        <v>0.9618393576723623</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>48651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35864</v>
+        <v>36609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63544</v>
+        <v>64375</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08323851882912658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06136037473069832</v>
+        <v>0.0626358799680645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1087201012770787</v>
+        <v>0.1101418187465638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -4940,19 +4940,19 @@
         <v>60067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47100</v>
+        <v>45514</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74807</v>
+        <v>75461</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1071205165085335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08399571399633969</v>
+        <v>0.08116704936123736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1334075979511681</v>
+        <v>0.1345732820613354</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -4961,19 +4961,19 @@
         <v>108718</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89759</v>
+        <v>89970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130911</v>
+        <v>131337</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09493206990877076</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07837717779144272</v>
+        <v>0.07856192771409473</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1143111091561061</v>
+        <v>0.1146832390233697</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>535823</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>520930</v>
+        <v>520099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>548610</v>
+        <v>547865</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9167614811708734</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8912798987229215</v>
+        <v>0.8898581812534355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9386396252693017</v>
+        <v>0.9373641200319351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>516</v>
@@ -5011,19 +5011,19 @@
         <v>500675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485935</v>
+        <v>485281</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>513642</v>
+        <v>515228</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8928794834914664</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8665924020488316</v>
+        <v>0.8654267179386642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9160042860036601</v>
+        <v>0.9188329506387624</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1034</v>
@@ -5032,19 +5032,19 @@
         <v>1036498</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1014305</v>
+        <v>1013879</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1055457</v>
+        <v>1055246</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9050679300912292</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8856888908438939</v>
+        <v>0.8853167609766303</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9216228222085572</v>
+        <v>0.9214380722859051</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>75872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61333</v>
+        <v>60106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94207</v>
+        <v>93083</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1142268373621992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09233839568686067</v>
+        <v>0.09049065077409987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1418304497332716</v>
+        <v>0.1401385270428513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -5157,19 +5157,19 @@
         <v>95687</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79785</v>
+        <v>79037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113803</v>
+        <v>113870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1463182302628487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1220011537454884</v>
+        <v>0.1208582521427153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1740194133159832</v>
+        <v>0.1741226397578569</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -5178,19 +5178,19 @@
         <v>171559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149623</v>
+        <v>148658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198547</v>
+        <v>200241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1301477190521859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1135064396623774</v>
+        <v>0.1127743534132923</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1506214580884707</v>
+        <v>0.1519061739908846</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>588349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>570014</v>
+        <v>571138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>602888</v>
+        <v>604115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8857731626378008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8581695502667285</v>
+        <v>0.8598614729571488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9076616043131394</v>
+        <v>0.9095093492259001</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>562</v>
@@ -5228,19 +5228,19 @@
         <v>558280</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>540164</v>
+        <v>540097</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>574182</v>
+        <v>574930</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8536817697371513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8259805866840172</v>
+        <v>0.8258773602421432</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8779988462545116</v>
+        <v>0.8791417478572847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1124</v>
@@ -5249,19 +5249,19 @@
         <v>1146628</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1119640</v>
+        <v>1117946</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1168564</v>
+        <v>1169529</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8698522809478142</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8493785419115294</v>
+        <v>0.848093826009116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8864935603376225</v>
+        <v>0.8872256465867078</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>120233</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102169</v>
+        <v>101211</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142122</v>
+        <v>142245</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1872425301282316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1591103232516061</v>
+        <v>0.1576189525028095</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2213315630354622</v>
+        <v>0.2215226366502558</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -5374,19 +5374,19 @@
         <v>153215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133105</v>
+        <v>132059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178041</v>
+        <v>177374</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2371137749769558</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2059918545608891</v>
+        <v>0.2043723231350677</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2755340344263674</v>
+        <v>0.2745024813205721</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>250</v>
@@ -5395,19 +5395,19 @@
         <v>273448</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246060</v>
+        <v>243671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304894</v>
+        <v>302572</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.212256408601034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.190996834278271</v>
+        <v>0.1891428181786503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2366658313577507</v>
+        <v>0.2348632002185755</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>521891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500002</v>
+        <v>499879</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>539955</v>
+        <v>540913</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8127574698717684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7786684369645378</v>
+        <v>0.7784773633497443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8408896767483942</v>
+        <v>0.8423810474971906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>456</v>
@@ -5445,19 +5445,19 @@
         <v>492952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>468126</v>
+        <v>468793</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>513062</v>
+        <v>514108</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7628862250230442</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7244659655736325</v>
+        <v>0.7254975186794279</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7940081454391109</v>
+        <v>0.7956276768649323</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>927</v>
@@ -5466,19 +5466,19 @@
         <v>1014843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>983397</v>
+        <v>985719</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1042231</v>
+        <v>1044620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.787743591398966</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7633341686422497</v>
+        <v>0.7651367997814246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8090031657217291</v>
+        <v>0.8108571818213497</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>116831</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98505</v>
+        <v>99111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136500</v>
+        <v>137781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2461577522895085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2075441061249968</v>
+        <v>0.2088213468765545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.287598924982158</v>
+        <v>0.2902982596709733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -5591,19 +5591,19 @@
         <v>204539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>182111</v>
+        <v>181333</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>228758</v>
+        <v>226929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4144911089862468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3690425406639669</v>
+        <v>0.3674649187566294</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4635712221284599</v>
+        <v>0.459864024433408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>283</v>
@@ -5612,19 +5612,19 @@
         <v>321370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>286335</v>
+        <v>290218</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>352549</v>
+        <v>355325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3319631967767009</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2957737591933267</v>
+        <v>0.2997851441245484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3641707266442947</v>
+        <v>0.3670383790291221</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>357789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>338120</v>
+        <v>336839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>376115</v>
+        <v>375509</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7538422477104916</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7124010750178424</v>
+        <v>0.7097017403290267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7924558938750033</v>
+        <v>0.7911786531234453</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>250</v>
@@ -5662,19 +5662,19 @@
         <v>288930</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>264711</v>
+        <v>266540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>311358</v>
+        <v>312136</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5855088910137533</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5364287778715401</v>
+        <v>0.540135975566592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6309574593360332</v>
+        <v>0.6325350812433703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>568</v>
@@ -5683,19 +5683,19 @@
         <v>646718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>615539</v>
+        <v>612763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>681753</v>
+        <v>677870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6680368032232991</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6358292733557054</v>
+        <v>0.6329616209708778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7042262408066733</v>
+        <v>0.7002148558754516</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>107104</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>92139</v>
+        <v>90402</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>125269</v>
+        <v>125348</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3213717790191129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2764690239855606</v>
+        <v>0.2712571007286547</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3758773530396378</v>
+        <v>0.376114650717548</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>192</v>
@@ -5808,19 +5808,19 @@
         <v>203394</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>184809</v>
+        <v>183594</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>223017</v>
+        <v>223602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5398985996833026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4905651091844741</v>
+        <v>0.4873393983362016</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5919860669615123</v>
+        <v>0.5935380610453719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>296</v>
@@ -5829,19 +5829,19 @@
         <v>310498</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>283336</v>
+        <v>285372</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>338010</v>
+        <v>339961</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4373228016321722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3990662396268542</v>
+        <v>0.4019328384790282</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4760717226627738</v>
+        <v>0.4788198669588847</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>226167</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208002</v>
+        <v>207923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241132</v>
+        <v>242869</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.678628220980887</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6241226469603623</v>
+        <v>0.6238853492824522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7235309760144394</v>
+        <v>0.7287428992713453</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>161</v>
@@ -5879,19 +5879,19 @@
         <v>173333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>153710</v>
+        <v>153125</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>191918</v>
+        <v>193133</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4601014003166974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4080139330384877</v>
+        <v>0.4064619389546281</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.509434890815526</v>
+        <v>0.5126606016637985</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>381</v>
@@ -5900,19 +5900,19 @@
         <v>399500</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>371988</v>
+        <v>370037</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>426662</v>
+        <v>424626</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5626771983678277</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5239282773372261</v>
+        <v>0.5211801330411152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6009337603731456</v>
+        <v>0.5980671615209718</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>138891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>123090</v>
+        <v>124374</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>152769</v>
+        <v>152688</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5420860519395357</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4804169594412126</v>
+        <v>0.4854281754509138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5962530474008297</v>
+        <v>0.5959374483296289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -6025,19 +6025,19 @@
         <v>273414</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>253075</v>
+        <v>249872</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>294431</v>
+        <v>292898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6919040510945426</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6404326693430276</v>
+        <v>0.6323271471229791</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7450889923053061</v>
+        <v>0.7412109913603341</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>369</v>
@@ -6046,19 +6046,19 @@
         <v>412305</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>387173</v>
+        <v>387140</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>435850</v>
+        <v>437822</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6329740229310382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5943918637903425</v>
+        <v>0.594340331776638</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6691217202025903</v>
+        <v>0.6721476297553464</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>117324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103446</v>
+        <v>103527</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>133125</v>
+        <v>131841</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4579139480604643</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.40374695259917</v>
+        <v>0.4040625516703713</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5195830405587869</v>
+        <v>0.5145718245490865</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>89</v>
@@ -6096,19 +6096,19 @@
         <v>121748</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>100731</v>
+        <v>102264</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>142087</v>
+        <v>145290</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3080959489054574</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2549110076946935</v>
+        <v>0.2587890086396661</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3595673306569724</v>
+        <v>0.3676728528770208</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>229</v>
@@ -6117,19 +6117,19 @@
         <v>239072</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>215527</v>
+        <v>213555</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>264204</v>
+        <v>264237</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3670259770689618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3308782797974099</v>
+        <v>0.3278523702446538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4056081362096576</v>
+        <v>0.4056596682233622</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>625326</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>579631</v>
+        <v>577050</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>674571</v>
+        <v>669355</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1855770593163876</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1720163303739993</v>
+        <v>0.1712501373155456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2001913144920861</v>
+        <v>0.1986435844570186</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>903</v>
@@ -6242,19 +6242,19 @@
         <v>1014774</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>960271</v>
+        <v>958393</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1075085</v>
+        <v>1073564</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2881251362814253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.27265021915454</v>
+        <v>0.2721171031673614</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3052493027386323</v>
+        <v>0.3048176084556649</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1509</v>
@@ -6263,19 +6263,19 @@
         <v>1640099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1565158</v>
+        <v>1573436</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1710933</v>
+        <v>1717580</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2379846585917866</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2271103144975584</v>
+        <v>0.2283115880945399</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2482629598699192</v>
+        <v>0.2492274347496997</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2744304</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2695059</v>
+        <v>2700275</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2789999</v>
+        <v>2792580</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8144229406836124</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7998086855079141</v>
+        <v>0.8013564155429814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8279836696260008</v>
+        <v>0.8287498626844544</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2413</v>
@@ -6313,19 +6313,19 @@
         <v>2507215</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2446904</v>
+        <v>2448425</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2561718</v>
+        <v>2563596</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7118748637185747</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6947506972613677</v>
+        <v>0.6951823915443349</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7273497808454599</v>
+        <v>0.7278828968326384</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5015</v>
@@ -6334,19 +6334,19 @@
         <v>5251519</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5180685</v>
+        <v>5174038</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5326460</v>
+        <v>5318182</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7620153414082135</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7517370401300809</v>
+        <v>0.7507725652503007</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7728896855024416</v>
+        <v>0.7716884119054603</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>33494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19403</v>
+        <v>19397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54527</v>
+        <v>53723</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08213423961616781</v>
+        <v>0.08213423961616778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04758099393865306</v>
+        <v>0.04756596012659191</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.133713455468274</v>
+        <v>0.131740998912867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6702,19 +6702,19 @@
         <v>43414</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28971</v>
+        <v>27238</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64374</v>
+        <v>62862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1197589560499821</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07991759372075499</v>
+        <v>0.07513784690551224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1775772162673634</v>
+        <v>0.1734056736946917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -6723,19 +6723,19 @@
         <v>76908</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55674</v>
+        <v>52906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107087</v>
+        <v>102648</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09984074495595488</v>
+        <v>0.09984074495595487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07227492888614878</v>
+        <v>0.06868227720490806</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1390191219267232</v>
+        <v>0.1332557234390865</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>374299</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353266</v>
+        <v>354070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>388390</v>
+        <v>388396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9178657603838322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8662865445317257</v>
+        <v>0.8682590010871319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9524190060613468</v>
+        <v>0.9524340398734078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>185</v>
@@ -6773,19 +6773,19 @@
         <v>319098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298138</v>
+        <v>299650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333541</v>
+        <v>335274</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8802410439500178</v>
+        <v>0.8802410439500179</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8224227837326364</v>
+        <v>0.8265943263053082</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9200824062792451</v>
+        <v>0.9248621530944875</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>343</v>
@@ -6794,19 +6794,19 @@
         <v>693397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>663218</v>
+        <v>667657</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714631</v>
+        <v>717399</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9001592550440453</v>
+        <v>0.9001592550440451</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8609808780732768</v>
+        <v>0.8667442765609135</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9277250711138512</v>
+        <v>0.9313177227950916</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>74466</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57856</v>
+        <v>55128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96563</v>
+        <v>96553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1561499205608469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1213197059473457</v>
+        <v>0.1155984407846801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2024840819062932</v>
+        <v>0.2024635681740684</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -6919,19 +6919,19 @@
         <v>77386</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62527</v>
+        <v>61840</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95803</v>
+        <v>95277</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1544374931914317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1247827856610085</v>
+        <v>0.1234132226871726</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1911926118699201</v>
+        <v>0.1901427393466645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -6940,19 +6940,19 @@
         <v>151852</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127112</v>
+        <v>127807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180841</v>
+        <v>179966</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.155272526107102</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1299753665529311</v>
+        <v>0.1306858030302336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1849137818809871</v>
+        <v>0.1840197553502976</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>402424</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>380327</v>
+        <v>380337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>419034</v>
+        <v>421762</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.843850079439153</v>
+        <v>0.8438500794391529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7975159180937067</v>
+        <v>0.7975364318259311</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8786802940526544</v>
+        <v>0.8844015592153196</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>389</v>
@@ -6990,19 +6990,19 @@
         <v>423697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>405280</v>
+        <v>405806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>438556</v>
+        <v>439243</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8455625068085683</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.80880738813008</v>
+        <v>0.8098572606533356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8752172143389911</v>
+        <v>0.8765867773128274</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>641</v>
@@ -7011,19 +7011,19 @@
         <v>826121</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>797132</v>
+        <v>798007</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>850861</v>
+        <v>850166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8447274738928979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8150862181190131</v>
+        <v>0.8159802446497029</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.870024633447069</v>
+        <v>0.8693141969697664</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>113833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94977</v>
+        <v>94154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134940</v>
+        <v>134802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1833540032064408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1529822231246833</v>
+        <v>0.1516570236448891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2173521987921706</v>
+        <v>0.2171291482017153</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -7136,19 +7136,19 @@
         <v>142051</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126740</v>
+        <v>125236</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>159777</v>
+        <v>159923</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2283261213178881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2037170179009364</v>
+        <v>0.2012986158366269</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.256818242929858</v>
+        <v>0.2570530437660619</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>308</v>
@@ -7157,19 +7157,19 @@
         <v>255884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>232136</v>
+        <v>229947</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>284236</v>
+        <v>282567</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2058636238456049</v>
+        <v>0.205863623845605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1867583575057934</v>
+        <v>0.1849971744679713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2286740385345814</v>
+        <v>0.2273310622473497</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>507004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>485897</v>
+        <v>486035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>525860</v>
+        <v>526683</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8166459967935592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7826478012078294</v>
+        <v>0.7828708517982846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8470177768753165</v>
+        <v>0.8483429763551107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -7207,19 +7207,19 @@
         <v>480088</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>462362</v>
+        <v>462216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>495399</v>
+        <v>496903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7716738786821119</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.743181757070142</v>
+        <v>0.7429469562339382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7962829820990636</v>
+        <v>0.7987013841633731</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1084</v>
@@ -7228,19 +7228,19 @@
         <v>987092</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>958740</v>
+        <v>960409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1010840</v>
+        <v>1013029</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.794136376154395</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7713259614654182</v>
+        <v>0.7726689377526503</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8132416424942058</v>
+        <v>0.8150028255320287</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>183471</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160148</v>
+        <v>158714</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207230</v>
+        <v>206317</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2618710531779764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2285820230363356</v>
+        <v>0.2265350087478187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2957828081923736</v>
+        <v>0.2944787345491566</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>408</v>
@@ -7353,19 +7353,19 @@
         <v>254177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>233503</v>
+        <v>234958</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>273389</v>
+        <v>273731</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3449334790533746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3168783054627539</v>
+        <v>0.3188523856485327</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3710053925804335</v>
+        <v>0.3714705735914402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>585</v>
@@ -7374,19 +7374,19 @@
         <v>437648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>406309</v>
+        <v>407652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>470809</v>
+        <v>469479</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3044501275542608</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2826491923449039</v>
+        <v>0.283583259626909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3275181590605365</v>
+        <v>0.3265932819908994</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>517146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493387</v>
+        <v>494300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>540469</v>
+        <v>541903</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7381289468220237</v>
+        <v>0.7381289468220236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7042171918076264</v>
+        <v>0.7055212654508436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7714179769636644</v>
+        <v>0.7734649912521818</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>733</v>
@@ -7424,19 +7424,19 @@
         <v>482709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463497</v>
+        <v>463155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>503383</v>
+        <v>501928</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6550665209466254</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6289946074195665</v>
+        <v>0.62852942640856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6831216945372467</v>
+        <v>0.6811476143514675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1221</v>
@@ -7445,19 +7445,19 @@
         <v>999856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>966695</v>
+        <v>968025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1031195</v>
+        <v>1029852</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6955498724457392</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6724818409394629</v>
+        <v>0.6734067180091007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7173508076550955</v>
+        <v>0.7164167403730911</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>228651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>205475</v>
+        <v>206989</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>253248</v>
+        <v>251905</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3768586685774529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3386602225365266</v>
+        <v>0.3411554227883692</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4173997108994351</v>
+        <v>0.4151860029932424</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>465</v>
@@ -7570,19 +7570,19 @@
         <v>279362</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260698</v>
+        <v>260694</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>299797</v>
+        <v>297753</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4588318333625075</v>
+        <v>0.4588318333625077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4281774508603268</v>
+        <v>0.4281708666947742</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4923952116053156</v>
+        <v>0.4890378040719725</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>718</v>
@@ -7591,19 +7591,19 @@
         <v>508013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>478661</v>
+        <v>479381</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>537566</v>
+        <v>536811</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4179169660815674</v>
+        <v>0.4179169660815673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3937705927717676</v>
+        <v>0.3943625073158017</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4422283198183126</v>
+        <v>0.4416071977337844</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>378077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>353480</v>
+        <v>354823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>401253</v>
+        <v>399739</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6231413314225471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5826002891005655</v>
+        <v>0.5848139970067575</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6613397774634734</v>
+        <v>0.658844577211631</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>537</v>
@@ -7641,19 +7641,19 @@
         <v>329493</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>309058</v>
+        <v>311102</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>348157</v>
+        <v>348161</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5411681666374922</v>
+        <v>0.5411681666374923</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5076047883946845</v>
+        <v>0.5109621959280282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5718225491396731</v>
+        <v>0.5718291333052258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>945</v>
@@ -7662,19 +7662,19 @@
         <v>707571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>678018</v>
+        <v>678773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>736923</v>
+        <v>736203</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5820830339184327</v>
+        <v>0.5820830339184326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5577716801816874</v>
+        <v>0.5583928022662156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6062294072282324</v>
+        <v>0.6056374926841983</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>142202</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126689</v>
+        <v>126429</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>158735</v>
+        <v>158893</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3493224131123426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3112130133042521</v>
+        <v>0.3105756186494716</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.389936377127479</v>
+        <v>0.3903247563558581</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>438</v>
@@ -7787,19 +7787,19 @@
         <v>228364</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>213992</v>
+        <v>212285</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243160</v>
+        <v>242188</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5215962543630622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.488769103392172</v>
+        <v>0.4848703486885094</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5553909278801399</v>
+        <v>0.5531698540978608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>648</v>
@@ -7808,19 +7808,19 @@
         <v>370566</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>348693</v>
+        <v>346248</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>394477</v>
+        <v>390994</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4385931343591063</v>
+        <v>0.4385931343591064</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4127047087066913</v>
+        <v>0.4098108485309207</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4668932759878329</v>
+        <v>0.4627707254657654</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>264878</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248345</v>
+        <v>248187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>280391</v>
+        <v>280651</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6506775868876574</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6100636228725206</v>
+        <v>0.6096752436441421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6887869866957479</v>
+        <v>0.6894243813505285</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>387</v>
@@ -7858,19 +7858,19 @@
         <v>209454</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194658</v>
+        <v>195630</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223826</v>
+        <v>225533</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4784037456369378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4446090721198601</v>
+        <v>0.4468301459021393</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5112308966078279</v>
+        <v>0.5151296513114907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>747</v>
@@ -7879,19 +7879,19 @@
         <v>474332</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>450421</v>
+        <v>453904</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>496205</v>
+        <v>498650</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5614068656408938</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5331067240121671</v>
+        <v>0.5372292745342345</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5872952912933087</v>
+        <v>0.5901891514690791</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>157195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>142995</v>
+        <v>143190</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>171991</v>
+        <v>172758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5084015206903936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4624759438299792</v>
+        <v>0.4631075532866936</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.556255456956252</v>
+        <v>0.5587380125519162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>692</v>
@@ -8004,19 +8004,19 @@
         <v>360339</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>346079</v>
+        <v>346476</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>372399</v>
+        <v>372667</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.780802291096529</v>
+        <v>0.7808022910965289</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7499024809686632</v>
+        <v>0.7507617151533069</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8069341862288842</v>
+        <v>0.8075136657583168</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>932</v>
@@ -8025,19 +8025,19 @@
         <v>517534</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>495283</v>
+        <v>497682</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>536539</v>
+        <v>539493</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6715179370924322</v>
+        <v>0.6715179370924323</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6426462756710893</v>
+        <v>0.6457595123972293</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6961769086139196</v>
+        <v>0.7000099450655</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>151999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>137203</v>
+        <v>136436</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166199</v>
+        <v>166004</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4915984793096064</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4437445430437483</v>
+        <v>0.4412619874480839</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.537524056170021</v>
+        <v>0.5368924467133064</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>184</v>
@@ -8075,19 +8075,19 @@
         <v>101160</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>89100</v>
+        <v>88832</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>115420</v>
+        <v>115023</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.219197708903471</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1930658137711158</v>
+        <v>0.1924863342416834</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.250097519031337</v>
+        <v>0.2492382848466935</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>401</v>
@@ -8096,19 +8096,19 @@
         <v>253159</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>234154</v>
+        <v>231200</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>275410</v>
+        <v>273011</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3284820629075677</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3038230913860804</v>
+        <v>0.2999900549345001</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3573537243289105</v>
+        <v>0.3542404876027703</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>933312</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>878465</v>
+        <v>879353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>986754</v>
+        <v>988764</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2644588154937038</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2489176637320382</v>
+        <v>0.2491692203955087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2796016931752824</v>
+        <v>0.2801714503891268</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2298</v>
@@ -8221,19 +8221,19 @@
         <v>1385094</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1328015</v>
+        <v>1336728</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1427662</v>
+        <v>1440582</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3712598008806118</v>
+        <v>0.3712598008806117</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3559603317005495</v>
+        <v>0.3582958653595232</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.382669681052642</v>
+        <v>0.3861327028256145</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3348</v>
@@ -8242,19 +8242,19 @@
         <v>2318406</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2236835</v>
+        <v>2238993</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2388321</v>
+        <v>2390384</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3193425760462913</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3081067402087963</v>
+        <v>0.3084040983296282</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3289728541307135</v>
+        <v>0.3292569966909226</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2595828</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2542386</v>
+        <v>2540376</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2650675</v>
+        <v>2649787</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7355411845062962</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7203983068247176</v>
+        <v>0.7198285496108731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7510823362679618</v>
+        <v>0.7508307796044913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3059</v>
@@ -8292,19 +8292,19 @@
         <v>2345700</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2303132</v>
+        <v>2290212</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2402779</v>
+        <v>2394066</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6287401991193883</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6173303189473581</v>
+        <v>0.6138672971743856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6440396682994507</v>
+        <v>0.6417041346404769</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5382</v>
@@ -8313,19 +8313,19 @@
         <v>4941528</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4871613</v>
+        <v>4869550</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5023099</v>
+        <v>5020941</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6806574239537088</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6710271458692866</v>
+        <v>0.6707430033090775</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6918932597912035</v>
+        <v>0.6915959016703718</v>
       </c>
     </row>
     <row r="27">
